--- a/spring_and_jxls/target/classes/templates/test3.xlsx
+++ b/spring_and_jxls/target/classes/templates/test3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\spring-boot-swagger-3-example-master\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC61185-76DD-41EB-B0F9-BD1A3ADCE2B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B2EFFF-CA53-4649-8A94-0B582AC891DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4180" yWindow="3310" windowWidth="25180" windowHeight="7610" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="部門資訊" sheetId="1" r:id="rId1"/>
@@ -36,14 +36,17 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>ray0305:</t>
+          <t>jx:area(lastCell="C5")</t>
         </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{143D1388-8AEA-4536-94BD-B3A446E1B65F}">
+      <text>
         <r>
           <rPr>
             <sz val="9"/>
@@ -51,32 +54,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">
-jx:area(lastCell="C5")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{143D1388-8AEA-4536-94BD-B3A446E1B65F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>ray0305:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-jx:each(items="userList" var="user" lastCell="C4")</t>
+          <t>jx:each(items="userList" var="user" lastCell="C4")</t>
         </r>
       </text>
     </comment>
@@ -94,14 +72,17 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>ray0305:</t>
+          <t>jx:area(lastCell="C5")</t>
         </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{E63556E9-3B51-48A0-8119-2A945B946A2C}">
+      <text>
         <r>
           <rPr>
             <sz val="9"/>
@@ -109,32 +90,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">
-jx:area(lastCell="C5")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{E63556E9-3B51-48A0-8119-2A945B946A2C}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>ray0305:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-jx:each(items="userList" var="user" lastCell="C4")</t>
+          <t>jx:each(items="userList" var="user" lastCell="C4")</t>
         </r>
       </text>
     </comment>
@@ -152,14 +108,17 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>ray0305:</t>
+          <t>jx:area(lastCell="C5")</t>
         </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{63CEDC23-DFC2-40B3-BAED-C3D9C2ACAB27}">
+      <text>
         <r>
           <rPr>
             <sz val="9"/>
@@ -167,32 +126,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">
-jx:area(lastCell="C5")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{63CEDC23-DFC2-40B3-BAED-C3D9C2ACAB27}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>ray0305:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-jx:each(items="userList" var="user" lastCell="C4")</t>
+          <t>jx:each(items="userList" var="user" lastCell="C4")</t>
         </r>
       </text>
     </comment>
@@ -259,7 +193,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,13 +209,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -344,7 +271,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -356,10 +283,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -370,6 +294,9 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -655,7 +582,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -667,11 +594,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -716,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10D478AF-7B52-441A-85EF-24B5F2463C8D}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -729,11 +656,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -776,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44385E4A-E4AE-4F3D-BEFA-D1CB287FD6B4}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -789,11 +716,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -813,7 +740,7 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
     </row>
